--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_015_SyntheticQuotes.xlsx
@@ -13,9 +13,6 @@
     <sheet name="6M" sheetId="15" r:id="rId4"/>
     <sheet name="1Y" sheetId="16" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Currency</t>
   </si>
@@ -140,6 +137,9 @@
   <si>
     <t>GBP</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +153,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -713,22 +713,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,7 +1009,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="6" customWidth="1"/>
@@ -1037,13 +1021,13 @@
     <col min="8" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="56" t="s">
         <v>9</v>
@@ -1052,14 +1036,14 @@
       <c r="D2" s="57"/>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="13" t="s">
@@ -1068,7 +1052,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
@@ -1079,7 +1063,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="13" t="s">
@@ -1090,7 +1074,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
@@ -1101,19 +1085,18 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="13" t="s">
@@ -1124,15 +1107,15 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="56" t="s">
         <v>19</v>
       </c>
@@ -1140,13 +1123,13 @@
       <c r="D12" s="57"/>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="13" t="s">
         <v>0</v>
@@ -1156,7 +1139,7 @@
       </c>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="13" t="s">
         <v>12</v>
@@ -1166,7 +1149,7 @@
       </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -1176,7 +1159,7 @@
       </c>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="2:5" ht="12" thickBot="1">
+    <row r="17" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1208,7 +1191,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="21" bestFit="1" customWidth="1"/>
@@ -1219,7 +1202,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>1</v>
@@ -1232,24 +1215,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="49"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>GBP_015_SyntheticQuotes1M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="51" t="s">
         <v>25</v>
@@ -1268,7 +1251,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -1287,7 +1270,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="51" t="s">
         <v>16</v>
@@ -1306,7 +1289,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="51" t="s">
         <v>20</v>
@@ -1325,7 +1308,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="51" t="s">
         <v>17</v>
@@ -1344,7 +1327,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="51" t="s">
         <v>18</v>
@@ -1363,7 +1346,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -1382,7 +1365,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="50" t="s">
         <v>21</v>
@@ -1401,7 +1384,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="55" t="s">
         <v>22</v>
@@ -1420,7 +1403,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="12" thickBot="1">
+    <row r="12" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1445,7 +1428,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="21" bestFit="1" customWidth="1"/>
@@ -1456,7 +1439,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>3</v>
@@ -1469,24 +1452,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="35"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>GBP_015_SyntheticQuotes3M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="51" t="s">
         <v>25</v>
@@ -1505,7 +1488,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -1524,7 +1507,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="s">
         <v>16</v>
@@ -1543,7 +1526,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="s">
         <v>20</v>
@@ -1562,7 +1545,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="s">
         <v>17</v>
@@ -1581,7 +1564,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="s">
         <v>18</v>
@@ -1600,7 +1583,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -1619,7 +1602,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="s">
         <v>2</v>
@@ -1638,7 +1621,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="52" t="s">
         <v>3</v>
@@ -1657,7 +1640,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="54" t="s">
         <v>21</v>
@@ -1676,7 +1659,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="53" t="s">
         <v>22</v>
@@ -1695,7 +1678,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="12" thickBot="1">
+    <row r="14" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1720,7 +1703,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
@@ -1731,7 +1714,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>6</v>
@@ -1744,24 +1727,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="49"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>GBP_015_SyntheticQuotes6M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D29,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>27</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="50" t="s">
         <v>25</v>
@@ -1780,7 +1763,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -1799,7 +1782,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="s">
         <v>16</v>
@@ -1818,7 +1801,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="s">
         <v>20</v>
@@ -1837,7 +1820,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="s">
         <v>17</v>
@@ -1856,7 +1839,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="s">
         <v>18</v>
@@ -1875,7 +1858,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -1894,7 +1877,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="s">
         <v>2</v>
@@ -1913,7 +1896,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="52" t="s">
         <v>3</v>
@@ -1932,7 +1915,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="52" t="s">
         <v>4</v>
@@ -1951,7 +1934,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="52" t="s">
         <v>5</v>
@@ -1970,7 +1953,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="53" t="s">
         <v>23</v>
@@ -1989,7 +1972,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2011,7 +1994,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -2033,7 +2016,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -2055,7 +2038,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -2077,7 +2060,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -2099,7 +2082,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -2121,7 +2104,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -2143,7 +2126,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -2165,7 +2148,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>13</v>
       </c>
@@ -2187,7 +2170,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>14</v>
       </c>
@@ -2209,7 +2192,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>15</v>
       </c>
@@ -2231,7 +2214,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -2253,7 +2236,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -2275,7 +2258,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="52" t="s">
         <v>21</v>
@@ -2294,7 +2277,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="53" t="s">
         <v>22</v>
@@ -2313,7 +2296,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="12" thickBot="1">
+    <row r="30" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2338,7 +2321,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="21" bestFit="1" customWidth="1"/>
@@ -2349,7 +2332,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>12</v>
@@ -2362,24 +2345,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="35"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>GBP_015_SyntheticQuotes1Y.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>62</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="51" t="s">
         <v>25</v>
@@ -2398,7 +2381,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -2417,7 +2400,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="s">
         <v>16</v>
@@ -2436,7 +2419,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="s">
         <v>20</v>
@@ -2455,7 +2438,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="s">
         <v>17</v>
@@ -2474,7 +2457,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="s">
         <v>18</v>
@@ -2493,7 +2476,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -2512,7 +2495,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="s">
         <v>2</v>
@@ -2531,7 +2514,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="52" t="s">
         <v>3</v>
@@ -2550,7 +2533,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="52" t="s">
         <v>4</v>
@@ -2569,7 +2552,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="52" t="s">
         <v>5</v>
@@ -2588,7 +2571,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="52" t="s">
         <v>23</v>
@@ -2607,7 +2590,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="52" t="s">
         <v>28</v>
@@ -2626,7 +2609,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="52" t="s">
         <v>29</v>
@@ -2645,7 +2628,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="52" t="s">
         <v>24</v>
@@ -2664,7 +2647,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="52" t="s">
         <v>30</v>
@@ -2683,7 +2666,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="52" t="s">
         <v>31</v>
@@ -2702,7 +2685,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="53" t="s">
         <v>27</v>
@@ -2721,7 +2704,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2743,7 +2726,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2765,7 +2748,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -2787,7 +2770,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -2809,7 +2792,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -2831,7 +2814,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -2853,7 +2836,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -2875,7 +2858,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -2897,7 +2880,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -2919,7 +2902,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -2941,7 +2924,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>11</v>
       </c>
@@ -2963,7 +2946,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>13</v>
       </c>
@@ -2985,7 +2968,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>14</v>
       </c>
@@ -3007,7 +2990,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>15</v>
       </c>
@@ -3029,7 +3012,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>16</v>
       </c>
@@ -3051,7 +3034,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>17</v>
       </c>
@@ -3073,7 +3056,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -3095,7 +3078,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>19</v>
       </c>
@@ -3117,7 +3100,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>20</v>
       </c>
@@ -3139,7 +3122,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>21</v>
       </c>
@@ -3161,7 +3144,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>22</v>
       </c>
@@ -3183,7 +3166,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>23</v>
       </c>
@@ -3205,7 +3188,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -3227,7 +3210,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>26</v>
       </c>
@@ -3249,7 +3232,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>27</v>
       </c>
@@ -3271,7 +3254,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>28</v>
       </c>
@@ -3293,7 +3276,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>29</v>
       </c>
@@ -3315,7 +3298,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>30</v>
       </c>
@@ -3337,7 +3320,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>31</v>
       </c>
@@ -3359,7 +3342,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>32</v>
       </c>
@@ -3381,7 +3364,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>33</v>
       </c>
@@ -3403,7 +3386,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>34</v>
       </c>
@@ -3425,7 +3408,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>35</v>
       </c>
@@ -3447,7 +3430,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>37</v>
       </c>
@@ -3469,7 +3452,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38</v>
       </c>
@@ -3491,7 +3474,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>39</v>
       </c>
@@ -3513,7 +3496,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40</v>
       </c>
@@ -3535,7 +3518,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41</v>
       </c>
@@ -3557,7 +3540,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42</v>
       </c>
@@ -3579,7 +3562,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43</v>
       </c>
@@ -3601,7 +3584,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44</v>
       </c>
@@ -3623,7 +3606,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45</v>
       </c>
@@ -3645,7 +3628,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>46</v>
       </c>
@@ -3667,7 +3650,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>47</v>
       </c>
@@ -3689,7 +3672,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="12" thickBot="1">
+    <row r="65" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_015_SyntheticQuotes.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Currency</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>GBP</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1088,9 @@
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>33</v>
+      <c r="D8" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1223,12 +1221,12 @@
         <v>GBP_015_SyntheticQuotes1M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1460,12 +1458,12 @@
         <v>GBP_015_SyntheticQuotes3M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1735,12 +1733,12 @@
         <v>GBP_015_SyntheticQuotes6M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D29,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D29,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2353,12 +2351,12 @@
         <v>GBP_015_SyntheticQuotes1Y.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
